--- a/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-telecom-usage.xlsx
+++ b/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-telecom-usage.xlsx
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T16:48:59+00:00</t>
+    <t>2024-05-15T13:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-telecom-usage.xlsx
+++ b/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T13:41:06+00:00</t>
+    <t>2024-05-15T14:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-telecom-usage.xlsx
+++ b/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T14:13:00+00:00</t>
+    <t>2024-05-15T14:44:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
